--- a/data/training/datos_entrenamiento.xlsx
+++ b/data/training/datos_entrenamiento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>confianza</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Contexto_adicional</t>
+          <t>contexto_adicional</t>
         </is>
       </c>
     </row>
@@ -466,19 +461,16 @@
           <t>CONSULTA_DEUDA</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cliente_activo</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cliente pregunta por su deuda</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cuánto es mi saldo</t>
+          <t>cuánto debo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -486,19 +478,16 @@
           <t>CONSULTA_DEUDA</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Cliente_activo</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cliente pregunta por su deuda</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mi deuda</t>
+          <t>cual es mi deuda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,12 +495,9 @@
           <t>CONSULTA_DEUDA</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cliente_activo</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cliente pregunta por su deuda</t>
         </is>
       </c>
     </row>
@@ -526,1662 +512,1983 @@
           <t>CONSULTA_DEUDA</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Cliente_activo</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cliente pregunta por saldo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>quiero pagar</t>
+          <t>mi saldo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INTENCION_PAGO</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tiene_recursos</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cliente consulta saldo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como puedo pagar</t>
+          <t>información de mi deuda</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INTENCION_PAGO</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>negociación</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cliente solicita información</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>opciones de pago</t>
+          <t>estado de cuenta</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INTENCION_PAGO</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>negociación</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cliente pide estado de cuenta</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>voy a pagar</t>
+          <t>valor que debo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTENCION_PAGO</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tiene_recursos</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cliente pregunta valor</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>plan de pagos</t>
+          <t>monto pendiente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SOLICITUD_PLAN</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>negociación</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cliente consulta monto</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cuotas</t>
+          <t>cuánto es lo que debo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SOLICITUD_PLAN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>negociación</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cliente pregunta deuda</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>facilidades</t>
+          <t>me pueden decir cuanto debo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SOLICITUD_PLAN</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>negociación</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cliente solicita información</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>acuerdo</t>
+          <t>necesito saber mi deuda</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SOLICITUD_PLAN</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tiene_recursos</t>
+          <t>CONSULTA_DEUDA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cliente necesita información</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Reprogramar</t>
+          <t>quiero pagar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cliente expresa intención de pagar</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mover</t>
+          <t>como puedo pagar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cliente pregunta forma de pago</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>opciones de pago</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cliente solicita opciones</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Modificar</t>
+          <t>voy a pagar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cliente confirma intención</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diferir</t>
+          <t>quiero cancelar</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cliente quiere cancelar deuda</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>¿Puedo pagar otro día?</t>
+          <t>formas de pago</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cliente pregunta formas</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Quiero cambiar la fecha del pago</t>
+          <t>abonar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cliente quiere abonar</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Necesito más tiempo</t>
+          <t>liquidar deuda</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cliente quiere liquidar</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>No puedo pagar hoy</t>
+          <t>pagar completo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cliente quiere pago total</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>¿Se puede mover la fecha?</t>
+          <t>hacer el pago</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cliente quiere hacer pago</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>¿Me das unos días más?</t>
+          <t>realizar pago</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cliente quiere realizar pago</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>No llego con el pago hoy</t>
+          <t>efectuar pago</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>INTENCION_PAGO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cliente quiere efectuar pago</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Podemos reacomodar la fecha</t>
+          <t>plan de pagos</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cliente solicita plan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>¿Qué opciones tengo para pagar después?</t>
+          <t>cuotas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cliente pregunta por cuotas</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Quisiera atrasar el pago</t>
+          <t>facilidades de pago</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cliente solicita facilidades</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>¿Puedo hacer el pago más adelante?</t>
+          <t>financiación</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cliente solicita financiación</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hoy no puedo pagar</t>
+          <t>arreglo de pago</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cliente solicita arreglo</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>En unos días pago</t>
+          <t>acuerdo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cliente busca acuerdo</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hasta la próxima semana</t>
+          <t>negociar</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>REPROGRAMAR_PAGO</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cliente quiere negociar</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>¿Qué opciones tengo para pagar?</t>
+          <t>pagar en cuotas</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cliente quiere cuotas</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>¿Cómo puedo hacer el pago?</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cliente solicita plan</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>¿Dónde puedo pagar?</t>
+          <t>convenio</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cliente busca convenio</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>¿Me puedes decir cómo pagar?</t>
+          <t>descuento</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cliente solicita descuento</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>¿Qué medios de pago tienen?</t>
+          <t>rebaja</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>SOLICITUD_PLAN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cliente solicita rebaja</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>¿Tienen pago en línea?</t>
+          <t>si</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cliente confirma</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>¿Puedo pagar por PSE?</t>
+          <t>sí</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cliente confirma</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>¿Aceptan tarjeta?</t>
+          <t>acepto</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cliente acepta</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>¿Tienen pago en efectivo?</t>
+          <t>de acuerdo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cliente está de acuerdo</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>¿Puedo pagar en un corresponsal?</t>
+          <t>confirmo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Cliente confirma</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>¿Puedo pagar en un punto físico?</t>
+          <t>está bien</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cliente acepta</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>¿Qué formas de pago hay disponibles?</t>
+          <t>perfecto</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cliente está conforme</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>¿Dónde se puede hacer el abono?</t>
+          <t>entendido</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cliente entiende</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>¿Se puede pagar por transferencia?</t>
+          <t>correcto</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cliente confirma</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>¿Cómo hago para saldar la deuda?</t>
+          <t>vale</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cliente acepta</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>¿Tienen link de pago?</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cliente acepta</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>¿Puedo pagar por Bancolombia?</t>
+          <t>bueno</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>CONFIRMACION</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cliente acepta</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>¿Cómo se hace el pago?</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cliente rechaza</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>¿Hay convenios de recaudo?</t>
+          <t>no puedo</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cliente no puede</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>¿Se puede hacer por Nequi o Daviplata?</t>
+          <t>imposible</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cliente dice que es imposible</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>¿Puedo pagar por la app?</t>
+          <t>no tengo dinero</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cliente no tiene recursos</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>¿Puedo hacer el pago desde el celular?</t>
+          <t>no me interesa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cliente no está interesado</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>¿Cuáles son las alternativas para pagar?</t>
+          <t>rechazo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cliente rechaza</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>¿Se puede pagar en cuotas?</t>
+          <t>no acepto</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Cliente no acepta</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>¿Tienen alguna plataforma para pagar?</t>
+          <t>no quiero</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cliente no quiere</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>¿Tienen número de cuenta?</t>
+          <t>no voy a pagar</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cliente se rehúsa</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>¿Hay algún enlace de pago?</t>
+          <t>no estoy de acuerdo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MOSTRAR_OPCIONES</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cliente no está de acuerdo</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>¿Qué ofertas tengo para pagar la deuda?</t>
+          <t>no me conviene</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Cliente dice que no conviene</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>¿Qué opciones de pago me pueden ofrecer?</t>
+          <t>muy caro</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>RECHAZO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cliente considera caro</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>¿Tienen algún descuento?</t>
+          <t>información</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cliente solicita información</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>¿Hay algún beneficio por pagar?</t>
+          <t>detalles</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cliente solicita detalles</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>¿Qué facilidades me pueden dar?</t>
+          <t>explicación</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Cliente solicita explicación</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>¿Qué acuerdos me ofrecen?</t>
+          <t>más información</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Cliente solicita más info</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>¿Puedo tener un plan de pagos?</t>
+          <t>me puedes explicar</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Cliente solicita explicación</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>¿Qué alternativas tengo para ponerme al día?</t>
+          <t>no entiendo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Cliente no entiende</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>¿Tienen promociones para saldar la deuda?</t>
+          <t>qué significa</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cliente pregunta significado</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>¿Me pueden hacer una rebaja?</t>
+          <t>por qué</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Cliente pregunta razón</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>¿Cuánto me descuentan si pago hoy?</t>
+          <t>cómo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Cliente pregunta cómo</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>¿Qué trato me ofrecen?</t>
+          <t>ayuda</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cliente solicita ayuda</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>¿Puedo pagar por partes?</t>
+          <t>explique mejor</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Cliente solicita mejor explicación</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>¿Puedo hacer un abono?</t>
+          <t>no comprendo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>SOLICITUD_INFO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cliente no comprende</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>¿Tienen algún plan especial?</t>
+          <t>mi cedula es</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Cliente proporciona cédula</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>¿Me pueden ayudar con un acuerdo?</t>
+          <t>documento</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cliente menciona documento</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>¿Hay alguna forma de pagar menos?</t>
+          <t>identificación</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cliente menciona identificación</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>¿Cuál es la mejor opción que tienen para mí?</t>
+          <t>soy</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Cliente se identifica</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>¿Puedo pagar en cuotas?</t>
+          <t>mi número</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cliente proporciona número</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>¿Qué opciones flexibles tienen?</t>
+          <t>cc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cliente menciona CC</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>¿Qué condiciones tienen para pagar la deuda?</t>
+          <t>cédula</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Cliente menciona cédula</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>¿Qué alternativas de arreglo tienen?</t>
+          <t>mi nombre es</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Cliente dice su nombre</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>¿Me pueden hacer un plan de pagos?</t>
+          <t>me llamo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cliente dice su nombre</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>¿Me pueden dar un alivio?</t>
+          <t>identificarme</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cliente quiere identificarse</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>¿Qué pasa si quiero pagar ahora?</t>
+          <t>1020428633</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ejemplo de cédula</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>¿Qué acuerdos tienen disponibles?</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PRESENTAR_OFERTAS</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>IDENTIFICACION</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ejemplo de documento</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gracias, eso era todo</t>
+          <t>opción 1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cliente selecciona opción</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Muchas Gracias por la información</t>
+          <t>opción 2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cliente selecciona opción</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Listo, ya no necesito nada más</t>
+          <t>opción 3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cliente selecciona opción</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Perfecto, estaré pendiente</t>
+          <t>primera</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Cliente selecciona primera</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ok, gracias por tu ayuda</t>
+          <t>segunda</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Cliente selecciona segunda</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Eso es todo por ahora</t>
+          <t>tercera</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cliente selecciona tercera</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Quedo atento, gracias</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cliente selecciona 1</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vale, muchas gracias</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cliente selecciona 2</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Listo, buen día</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Cliente selecciona 3</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Hasta luego</t>
+          <t>elijo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cliente elige</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gracias, hablamos después</t>
+          <t>escojo</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cliente escoge</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bueno, gracias</t>
+          <t>prefiero</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>SELECCION_OPCION</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Cliente prefiere</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Chao</t>
+          <t>hola</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Adiós</t>
+          <t>buenos días</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Gracias, ya tengo lo que necesitaba</t>
+          <t>buenas tardes</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Me quedó claro, gracias</t>
+          <t>buenas noches</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Muy amable, ya no tengo más preguntas</t>
+          <t>saludos</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>con Eso está bien</t>
+          <t>buen día</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Gracias, que estés bien</t>
+          <t>qué tal</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ya todo claro, gracias</t>
+          <t>cómo está</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Cliente pregunta como está</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Me retiro, gracias</t>
+          <t>muy buenas</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>buenas</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cliente saluda</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cliente saluda informal</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>holi</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SALUDO</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Cliente saluda informal</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>adiós</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>hasta luego</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>nos vemos</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>chao</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>bye</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>hasta la vista</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>que tenga buen día</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>gracias</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cliente agradece</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>muchas gracias</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Cliente agradece</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>hasta pronto</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>buen día</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>que esté bien</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>DESPEDIDA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cliente se despide</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2463,13 +2770,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B350AF2C-8A5D-4991-91B4-6F9EBBA22B89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC4E6AF6-CE48-4D31-B750-D623FBB2DD28}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B88B11-6691-470A-B5DC-7488F6EE4749}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51BF4E64-49DA-49FE-B449-861013B903C3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25291A51-64E7-43C2-9594-BDD8F85D34DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F20709D-0312-418C-998A-62AC3C2FF8DE}"/>
 </file>